--- a/data/trans_orig/P05A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>273566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>254192</v>
+        <v>251011</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>298377</v>
+        <v>298500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.553706242063014</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5144911378165353</v>
+        <v>0.5080543628672179</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.603923069252474</v>
+        <v>0.6041737489790008</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>258</v>
@@ -765,19 +765,19 @@
         <v>247777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225218</v>
+        <v>227942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>268904</v>
+        <v>269501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5311389163560416</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4827812487308617</v>
+        <v>0.4886208374867337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.576427501339542</v>
+        <v>0.5777073235471579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>530</v>
@@ -786,19 +786,19 @@
         <v>521343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>491022</v>
+        <v>486686</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>553438</v>
+        <v>549975</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5427463609950005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.511179936341873</v>
+        <v>0.5066660200690348</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5761587912824641</v>
+        <v>0.5725536846600513</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>183678</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162779</v>
+        <v>161791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>204565</v>
+        <v>204663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3717703566045299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3294694149430724</v>
+        <v>0.3274705968313703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4140457185724096</v>
+        <v>0.4142443771212972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -836,19 +836,19 @@
         <v>167424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>148732</v>
+        <v>147254</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>189967</v>
+        <v>188714</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3588927296716039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3188255907340754</v>
+        <v>0.3156572847426111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.407216400556795</v>
+        <v>0.4045299765170836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>367</v>
@@ -857,19 +857,19 @@
         <v>351102</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>323688</v>
+        <v>324922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>380859</v>
+        <v>384238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3655163032241814</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3369762646976199</v>
+        <v>0.3382608674483571</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3964952369571787</v>
+        <v>0.4000121230842251</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>36819</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26170</v>
+        <v>26989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49366</v>
+        <v>48740</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07452340133245612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0529689913504648</v>
+        <v>0.05462685120537143</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09991749147919567</v>
+        <v>0.09865131595075677</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -907,19 +907,19 @@
         <v>51300</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66360</v>
+        <v>67365</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1099683539723545</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08510222570350194</v>
+        <v>0.08402933762315933</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1422508564085491</v>
+        <v>0.1444053594680389</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>90</v>
@@ -928,19 +928,19 @@
         <v>88120</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71885</v>
+        <v>73704</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107670</v>
+        <v>107970</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.091737335780818</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07483622739406265</v>
+        <v>0.07673013083409358</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1120898175108447</v>
+        <v>0.1124024886389514</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>398606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368491</v>
+        <v>373940</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>426462</v>
+        <v>428107</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5419599136363656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5010146611100642</v>
+        <v>0.5084234165793572</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5798344685508119</v>
+        <v>0.5820714214076743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -1053,19 +1053,19 @@
         <v>294469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>268174</v>
+        <v>268172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>318013</v>
+        <v>318612</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4707778509815785</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4287395533972874</v>
+        <v>0.4287360326062276</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5084188115696531</v>
+        <v>0.5093765476741693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>658</v>
@@ -1074,19 +1074,19 @@
         <v>693074</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>652302</v>
+        <v>655322</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>728994</v>
+        <v>729957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5092453544581046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4792874321424867</v>
+        <v>0.4815068769482978</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5356385314308947</v>
+        <v>0.5363460930942716</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>263467</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>239578</v>
+        <v>234988</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>291090</v>
+        <v>288443</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3582202565253497</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3257402363378847</v>
+        <v>0.3194996668719841</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3957768652126151</v>
+        <v>0.3921789023833221</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>243</v>
@@ -1124,19 +1124,19 @@
         <v>257546</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>233709</v>
+        <v>232889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>284782</v>
+        <v>283207</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4117488712521291</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3736396755301185</v>
+        <v>0.3723280918177879</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4552918682073394</v>
+        <v>0.4527729647765913</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>500</v>
@@ -1145,19 +1145,19 @@
         <v>521013</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>486177</v>
+        <v>483732</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>558778</v>
+        <v>557854</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.382821468809717</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3572248993583574</v>
+        <v>0.3554289711298589</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4105694076996314</v>
+        <v>0.4098909204873372</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>73416</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56480</v>
+        <v>57771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90996</v>
+        <v>91523</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09981982983828473</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07679237818922653</v>
+        <v>0.07854782298455922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1237211823230927</v>
+        <v>0.1244380240688917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1195,19 +1195,19 @@
         <v>73479</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58258</v>
+        <v>56722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91057</v>
+        <v>91100</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1174732777662925</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09313945870750452</v>
+        <v>0.09068297563367099</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1455763413359717</v>
+        <v>0.1456453851675479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -1216,19 +1216,19 @@
         <v>146895</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124986</v>
+        <v>124880</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172571</v>
+        <v>171790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1079331767321784</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09183486060876875</v>
+        <v>0.09175728894771969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1267990600491805</v>
+        <v>0.1262252014552856</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>340662</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>315142</v>
+        <v>315905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>364104</v>
+        <v>364686</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5333943590276593</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4934364335821443</v>
+        <v>0.4946306293104159</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5700993757239673</v>
+        <v>0.5710105987631544</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>324</v>
@@ -1341,19 +1341,19 @@
         <v>341145</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>312771</v>
+        <v>315377</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>364503</v>
+        <v>366222</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4945972308526267</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4534598408708456</v>
+        <v>0.4572381107279044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5284610126822339</v>
+        <v>0.5309539993876747</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>648</v>
@@ -1362,19 +1362,19 @@
         <v>681807</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>648881</v>
+        <v>644482</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>724616</v>
+        <v>720075</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5132499313069546</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4884634510443433</v>
+        <v>0.4851525686438602</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5454751040441516</v>
+        <v>0.5420570318966607</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>239152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>215655</v>
+        <v>217457</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>263706</v>
+        <v>264940</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3744543825519788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3376640711220073</v>
+        <v>0.3404850438709959</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4128995081237084</v>
+        <v>0.4148314769503096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>229</v>
@@ -1412,19 +1412,19 @@
         <v>239852</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>217614</v>
+        <v>217308</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>267317</v>
+        <v>266864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.347741274502594</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3154998027099442</v>
+        <v>0.3150553325523029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3875590995657467</v>
+        <v>0.386902476945252</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>465</v>
@@ -1433,19 +1433,19 @@
         <v>479004</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>445929</v>
+        <v>444218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>514514</v>
+        <v>517465</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3605842767062965</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3356860363850669</v>
+        <v>0.3343975091361289</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3873149608071599</v>
+        <v>0.38953631695653</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>58854</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43865</v>
+        <v>44841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75506</v>
+        <v>74354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09215125842036184</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06868250841937407</v>
+        <v>0.07020986636381066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.11822380271943</v>
+        <v>0.1164206468350972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -1483,19 +1483,19 @@
         <v>108746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91458</v>
+        <v>90154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130408</v>
+        <v>127480</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1576614946447793</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.132597098041368</v>
+        <v>0.1307059930587866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1890674619726113</v>
+        <v>0.1848224412338248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>158</v>
@@ -1504,19 +1504,19 @@
         <v>167600</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>143344</v>
+        <v>143115</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>197034</v>
+        <v>194970</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1261657919867489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1079060341199116</v>
+        <v>0.1077337368043251</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1483232088768989</v>
+        <v>0.1467689739499447</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>270323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246530</v>
+        <v>247404</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291085</v>
+        <v>293056</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.52070649708434</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4748758966238896</v>
+        <v>0.4765582618722262</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5606984826793683</v>
+        <v>0.5644945901061392</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>263</v>
@@ -1629,19 +1629,19 @@
         <v>270226</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>247356</v>
+        <v>249033</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>291130</v>
+        <v>294689</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5260041001696137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4814871936191066</v>
+        <v>0.4847513658539998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5666938957334373</v>
+        <v>0.5736210599181077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>513</v>
@@ -1650,19 +1650,19 @@
         <v>540549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>507311</v>
+        <v>509673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>574121</v>
+        <v>573061</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5233414163718846</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4911612422147652</v>
+        <v>0.4934481243980807</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5558438517644656</v>
+        <v>0.5548177171259722</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>192387</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171053</v>
+        <v>170137</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>215804</v>
+        <v>214227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3705836347197287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3294882037947612</v>
+        <v>0.3277234088488729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.415689753976181</v>
+        <v>0.4126512651076897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -1700,19 +1700,19 @@
         <v>172645</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>152484</v>
+        <v>151452</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195273</v>
+        <v>194476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.336059508683579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2968149551484239</v>
+        <v>0.2948063905237707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3801061524900307</v>
+        <v>0.3785540722994954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>348</v>
@@ -1721,19 +1721,19 @@
         <v>365033</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>330818</v>
+        <v>334118</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394652</v>
+        <v>397109</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3534120414323524</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3202863219380879</v>
+        <v>0.3234812302902965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.382088696558495</v>
+        <v>0.3844676528752849</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>56436</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42768</v>
+        <v>41999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>71565</v>
+        <v>70633</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1087098681959312</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08238112236846216</v>
+        <v>0.08089984490117999</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1378517008355209</v>
+        <v>0.1360564384023964</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -1771,19 +1771,19 @@
         <v>70863</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>55943</v>
+        <v>56376</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89309</v>
+        <v>88023</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1379363911468072</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1088942430251107</v>
+        <v>0.1097379622594047</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1738423874635953</v>
+        <v>0.1713405622069628</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -1792,19 +1792,19 @@
         <v>127299</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>106032</v>
+        <v>108000</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>150217</v>
+        <v>150174</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.123246542195763</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.102656313656489</v>
+        <v>0.1045617912051171</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1454345149857311</v>
+        <v>0.1453933706309213</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>199540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179177</v>
+        <v>181067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217796</v>
+        <v>217585</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5171223289409627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4643493798476471</v>
+        <v>0.4692484506297823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5644349560520592</v>
+        <v>0.5638886598750147</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>200</v>
@@ -1917,19 +1917,19 @@
         <v>206784</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187014</v>
+        <v>185892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226976</v>
+        <v>226231</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5130427810103888</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4639927163605411</v>
+        <v>0.4612091632185703</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5631396011930313</v>
+        <v>0.5612921786517245</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -1938,19 +1938,19 @@
         <v>406324</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>379642</v>
+        <v>379364</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>434259</v>
+        <v>431913</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5150381134137734</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4812170744015538</v>
+        <v>0.4808650711596992</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5504477711502476</v>
+        <v>0.5474735600389126</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>138436</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>121720</v>
+        <v>121078</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>157858</v>
+        <v>156443</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3587672682411167</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3154454504456309</v>
+        <v>0.313782237066714</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4091013081019039</v>
+        <v>0.4054341612598382</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>132</v>
@@ -1988,19 +1988,19 @@
         <v>132621</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>115586</v>
+        <v>115680</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>151460</v>
+        <v>150853</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3290394914308021</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2867749874781414</v>
+        <v>0.2870078411729994</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3757817043845708</v>
+        <v>0.3742737419119946</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>275</v>
@@ -2009,19 +2009,19 @@
         <v>271057</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>244870</v>
+        <v>245136</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>296944</v>
+        <v>298826</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3435795329647326</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3103865005546645</v>
+        <v>0.3107231046724385</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3763936500712928</v>
+        <v>0.3787784094080235</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>47890</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35322</v>
+        <v>34957</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61710</v>
+        <v>61340</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1241104028179206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09153999458688941</v>
+        <v>0.09059318696511061</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1599260093820854</v>
+        <v>0.1589678869797533</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2059,19 +2059,19 @@
         <v>63649</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49991</v>
+        <v>50104</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78221</v>
+        <v>78720</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1579177275588091</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1240295780375021</v>
+        <v>0.124310292392102</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1940700909902206</v>
+        <v>0.195309341536134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -2080,19 +2080,19 @@
         <v>111539</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93088</v>
+        <v>92359</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132780</v>
+        <v>131625</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.141382353621494</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1179944227562977</v>
+        <v>0.117070186649696</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1683065656960569</v>
+        <v>0.1668414062466988</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>143808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126405</v>
+        <v>127658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>160042</v>
+        <v>162485</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4915105666488379</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4320301167398791</v>
+        <v>0.4363143768208487</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5469984537861291</v>
+        <v>0.5553476022344921</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>179</v>
@@ -2205,19 +2205,19 @@
         <v>168312</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>151115</v>
+        <v>150279</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>185530</v>
+        <v>185049</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4908012225385316</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4406531707495959</v>
+        <v>0.4382159739791768</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5410084603743885</v>
+        <v>0.5396063589084287</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>329</v>
@@ -2226,19 +2226,19 @@
         <v>312120</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>287726</v>
+        <v>287885</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>336256</v>
+        <v>338522</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4911277944921234</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4527436640064054</v>
+        <v>0.4529937193662227</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5291069099188512</v>
+        <v>0.5326712130739859</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>118127</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>102823</v>
+        <v>99859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>135126</v>
+        <v>136527</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4037389041408612</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3514323137820448</v>
+        <v>0.3413000662089198</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4618387447105483</v>
+        <v>0.4666272340998502</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -2276,19 +2276,19 @@
         <v>127592</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110950</v>
+        <v>109897</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>145273</v>
+        <v>143639</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.372058559093772</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3235320007465228</v>
+        <v>0.3204620658946132</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4236171661598383</v>
+        <v>0.4188539855874014</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>261</v>
@@ -2297,19 +2297,19 @@
         <v>245719</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>222978</v>
+        <v>220397</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>269134</v>
+        <v>267933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3866437399984566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3508604832496053</v>
+        <v>0.3467995208510786</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4234883079841699</v>
+        <v>0.4215985945908374</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>30648</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21392</v>
+        <v>21778</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41189</v>
+        <v>40855</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1047505292103009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07311414147312935</v>
+        <v>0.07443269255101541</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1407773653485668</v>
+        <v>0.139636744860074</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -2347,19 +2347,19 @@
         <v>47030</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35781</v>
+        <v>35796</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59233</v>
+        <v>61065</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1371402183676963</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1043381148353644</v>
+        <v>0.1043828398423686</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1727248112506045</v>
+        <v>0.1780676336818861</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>84</v>
@@ -2368,19 +2368,19 @@
         <v>77678</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62389</v>
+        <v>62573</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>93308</v>
+        <v>93874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.12222846550942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0981704655532836</v>
+        <v>0.09845967108191342</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1468221188928981</v>
+        <v>0.1477120715407808</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>104791</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>91885</v>
+        <v>90725</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>119142</v>
+        <v>118933</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5013557992270554</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4396076844096954</v>
+        <v>0.4340575511716075</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5700162847867395</v>
+        <v>0.5690145447573633</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>147</v>
@@ -2493,19 +2493,19 @@
         <v>168966</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>147906</v>
+        <v>148643</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>189048</v>
+        <v>187074</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5060263636834834</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.44295314300882</v>
+        <v>0.445161407190895</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5661681748220988</v>
+        <v>0.5602553108823922</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>258</v>
@@ -2514,19 +2514,19 @@
         <v>273757</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>246936</v>
+        <v>249070</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>296774</v>
+        <v>297810</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5042282857272102</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4548270082405275</v>
+        <v>0.4587569693430832</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5466228733700044</v>
+        <v>0.5485300332109359</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>81227</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67827</v>
+        <v>67005</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>95792</v>
+        <v>94391</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3886187476566887</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3245065768087259</v>
+        <v>0.3205732208644904</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4583039257930309</v>
+        <v>0.4515985790492392</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>107</v>
@@ -2564,19 +2564,19 @@
         <v>124087</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>105550</v>
+        <v>106062</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>143874</v>
+        <v>143430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3716213921871436</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3161050626360934</v>
+        <v>0.3176382921606393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4308798374212334</v>
+        <v>0.4295494899772808</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>191</v>
@@ -2585,19 +2585,19 @@
         <v>205315</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>183905</v>
+        <v>179647</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>229195</v>
+        <v>227474</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.378165048841462</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.338730671964187</v>
+        <v>0.3308881006246602</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4221500248563184</v>
+        <v>0.4189797958717831</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>22997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14172</v>
+        <v>14881</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30963</v>
+        <v>32675</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.110025453116256</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0678051330609795</v>
+        <v>0.07119654708090302</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1481375891290236</v>
+        <v>0.1563289203173548</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -2635,19 +2635,19 @@
         <v>40854</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29143</v>
+        <v>29303</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55659</v>
+        <v>54700</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.122352244129373</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08727855486886792</v>
+        <v>0.08775769431388396</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1666895468063285</v>
+        <v>0.1638164013614241</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -2656,19 +2656,19 @@
         <v>63851</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48662</v>
+        <v>50197</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>80726</v>
+        <v>81977</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1176066654313278</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08962985126845609</v>
+        <v>0.09245749662525561</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1486873389388157</v>
+        <v>0.1509922205872146</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>1731295</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1674682</v>
+        <v>1670771</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1787761</v>
+        <v>1788479</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5286669484853916</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5113797147236695</v>
+        <v>0.5101854471927798</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5459093104764847</v>
+        <v>0.5461285717405494</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1651</v>
@@ -2781,19 +2781,19 @@
         <v>1697680</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1638267</v>
+        <v>1641902</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1756870</v>
+        <v>1759055</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5029612582841534</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4853593426061268</v>
+        <v>0.4864363435942575</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5204972410450127</v>
+        <v>0.5211445974771479</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3337</v>
@@ -2802,19 +2802,19 @@
         <v>3428975</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3348751</v>
+        <v>3348925</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3512741</v>
+        <v>3514371</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5156197933673428</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5035564592537412</v>
+        <v>0.5035826410248269</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5282158639285703</v>
+        <v>0.5284609353530121</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>1216475</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1161800</v>
+        <v>1161958</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1273938</v>
+        <v>1278146</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.371461866574323</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3547663527405983</v>
+        <v>0.3548147175984916</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3890088784584967</v>
+        <v>0.3902938038530459</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1196</v>
@@ -2852,19 +2852,19 @@
         <v>1221767</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1166360</v>
+        <v>1163433</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1276382</v>
+        <v>1278604</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3619656029574606</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3455503227028148</v>
+        <v>0.3446832255319862</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3781458032884249</v>
+        <v>0.3788043208674035</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2407</v>
@@ -2873,19 +2873,19 @@
         <v>2438242</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2359170</v>
+        <v>2358123</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2518304</v>
+        <v>2517305</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3666419522486956</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3547518038407569</v>
+        <v>0.3545942328431977</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3786808785342629</v>
+        <v>0.3785306697036677</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>327061</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>292184</v>
+        <v>294184</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>362931</v>
+        <v>365760</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09987118494028532</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08922108976338219</v>
+        <v>0.0898317452653298</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1108242922296056</v>
+        <v>0.1116882689373163</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>446</v>
@@ -2923,19 +2923,19 @@
         <v>455922</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>417652</v>
+        <v>417272</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>495313</v>
+        <v>496814</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1350731387583861</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1237351025064145</v>
+        <v>0.1236225275794557</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1467432686778963</v>
+        <v>0.1471879779361312</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>761</v>
@@ -2944,19 +2944,19 @@
         <v>782983</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>727906</v>
+        <v>728397</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>831600</v>
+        <v>836033</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1177382543839616</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1094562329402586</v>
+        <v>0.1095300648116011</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1250488899648396</v>
+        <v>0.1257155172976328</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>314620</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>294590</v>
+        <v>291045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>333824</v>
+        <v>332815</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6942276117598383</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6500304944409808</v>
+        <v>0.6422076482793923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7366025318252443</v>
+        <v>0.734375754995409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>307</v>
@@ -3312,19 +3312,19 @@
         <v>310910</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>291306</v>
+        <v>290563</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>327159</v>
+        <v>327607</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7243677204168331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6786922189238543</v>
+        <v>0.6769614594912587</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7622242743318747</v>
+        <v>0.7632688075477405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>615</v>
@@ -3333,19 +3333,19 @@
         <v>625530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>598476</v>
+        <v>600906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>653213</v>
+        <v>651725</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7088881719157906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6782290383541542</v>
+        <v>0.6809827130570072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7402597379714979</v>
+        <v>0.7385735147110737</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>117895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100202</v>
+        <v>100378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138099</v>
+        <v>137652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2601432238064347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2211023546903008</v>
+        <v>0.221490585875411</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3047240741162886</v>
+        <v>0.3037374452182096</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -3383,19 +3383,19 @@
         <v>101640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85518</v>
+        <v>86192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119930</v>
+        <v>120217</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2368044963804294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1992434089517517</v>
+        <v>0.200812320596229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2794164678886551</v>
+        <v>0.2800855310697451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>213</v>
@@ -3404,19 +3404,19 @@
         <v>219536</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>193809</v>
+        <v>194268</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>245414</v>
+        <v>242546</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2487909482958779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2196362723096743</v>
+        <v>0.2201566825348823</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2781177715191033</v>
+        <v>0.2748679449493672</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>20679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12730</v>
+        <v>13113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30508</v>
+        <v>29545</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04562916443372696</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02809035228349804</v>
+        <v>0.02893396837412722</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06731670079687568</v>
+        <v>0.06519380834413376</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -3454,19 +3454,19 @@
         <v>16666</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9773</v>
+        <v>9639</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26756</v>
+        <v>26619</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03882778320273756</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02276978439921467</v>
+        <v>0.02245691702698101</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0623369790395733</v>
+        <v>0.06201871691190249</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -3475,19 +3475,19 @@
         <v>37344</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26222</v>
+        <v>27636</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49924</v>
+        <v>51123</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04232087978833157</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02971610593917019</v>
+        <v>0.03131910214092635</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05657688081900425</v>
+        <v>0.05793541733194423</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>470015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>440989</v>
+        <v>442555</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493132</v>
+        <v>493832</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6856094013006562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6432693456171062</v>
+        <v>0.6455535961695686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7193294300897072</v>
+        <v>0.7203512752320396</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>398</v>
@@ -3600,19 +3600,19 @@
         <v>425620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402037</v>
+        <v>403092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>447863</v>
+        <v>448839</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6974455889464652</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6588013176859664</v>
+        <v>0.6605304823539352</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.733894983519954</v>
+        <v>0.7354943967962203</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>850</v>
@@ -3621,19 +3621,19 @@
         <v>895635</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>860165</v>
+        <v>861013</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>927471</v>
+        <v>932978</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6911836420132289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6638103727967988</v>
+        <v>0.6644646644531204</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7157523158485799</v>
+        <v>0.7200019866039402</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>168717</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>147861</v>
+        <v>148350</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>193063</v>
+        <v>193938</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2461068732408894</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2156848237074783</v>
+        <v>0.2163975717986526</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2816203539303999</v>
+        <v>0.2828960593144167</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>131</v>
@@ -3671,19 +3671,19 @@
         <v>140508</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>120130</v>
+        <v>120708</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>162422</v>
+        <v>162475</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2302454266980302</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1968517742373367</v>
+        <v>0.1977988921606843</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2661547041899204</v>
+        <v>0.2662419678259055</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>301</v>
@@ -3692,19 +3692,19 @@
         <v>309226</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>278967</v>
+        <v>278723</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>342586</v>
+        <v>339923</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.238636940883843</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2152858552681083</v>
+        <v>0.2150970369781575</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2643823332598642</v>
+        <v>0.2623270218702988</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>46811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34148</v>
+        <v>35201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62696</v>
+        <v>62588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06828372545845439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04981156208366805</v>
+        <v>0.05134719413856032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09145497316334303</v>
+        <v>0.0912971399623486</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -3742,19 +3742,19 @@
         <v>44127</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30580</v>
+        <v>32233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57208</v>
+        <v>57314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07230898435550451</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05011064599359422</v>
+        <v>0.05281907737246846</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0937437954119589</v>
+        <v>0.09391848493901685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -3763,19 +3763,19 @@
         <v>90938</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72922</v>
+        <v>74076</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109282</v>
+        <v>112979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07017941710292804</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05627592442728609</v>
+        <v>0.05716646151686246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08433557626420064</v>
+        <v>0.08718881750778971</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>473351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>447138</v>
+        <v>449156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>497457</v>
+        <v>497739</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.695858147989637</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6573224764395413</v>
+        <v>0.6602898699423696</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7312956960885916</v>
+        <v>0.7317093177586445</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>489</v>
@@ -3888,19 +3888,19 @@
         <v>521624</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>495166</v>
+        <v>494518</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>544975</v>
+        <v>545531</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7355818020677619</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6982708705660928</v>
+        <v>0.697357146691084</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7685106335847899</v>
+        <v>0.7692955516022587</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>938</v>
@@ -3909,19 +3909,19 @@
         <v>994975</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>956537</v>
+        <v>959635</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1026474</v>
+        <v>1028100</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7161329629077317</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6884673831198354</v>
+        <v>0.6906970876001194</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7388042446827389</v>
+        <v>0.7399743084556042</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>166358</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144910</v>
+        <v>142828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>192290</v>
+        <v>190392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2445574369662176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2130267171250196</v>
+        <v>0.2099672579230053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.282679052505202</v>
+        <v>0.2798892812449353</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -3959,19 +3959,19 @@
         <v>144123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122580</v>
+        <v>122699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165857</v>
+        <v>166621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2032386801332212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.172860095905726</v>
+        <v>0.1730267309901565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2338879257723142</v>
+        <v>0.234964935725045</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -3980,19 +3980,19 @@
         <v>310481</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>279962</v>
+        <v>278886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>345142</v>
+        <v>343339</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2234684871483789</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2015022385513698</v>
+        <v>0.2007278504110045</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.248415796554365</v>
+        <v>0.2471181618033346</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>40532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28978</v>
+        <v>28807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55064</v>
+        <v>55686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05958441504414541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04259904700482743</v>
+        <v>0.04234870913020397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08094820340057139</v>
+        <v>0.08186187132970024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -4030,19 +4030,19 @@
         <v>43384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31683</v>
+        <v>31528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58645</v>
+        <v>57291</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06117951779901696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04467923290473659</v>
+        <v>0.04446060153512821</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08270030601863303</v>
+        <v>0.08079005599679638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>80</v>
@@ -4051,19 +4051,19 @@
         <v>83916</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66233</v>
+        <v>68219</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>102446</v>
+        <v>104669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06039854994388951</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04767083787049152</v>
+        <v>0.04910027968421356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07373570083321</v>
+        <v>0.07533552338916572</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>410541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>385555</v>
+        <v>386116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>435457</v>
+        <v>433345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6690776750655024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6283560545393302</v>
+        <v>0.6292712459580512</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7096838298498602</v>
+        <v>0.7062418190859081</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>374</v>
@@ -4176,19 +4176,19 @@
         <v>431995</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>406284</v>
+        <v>407084</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455369</v>
+        <v>454540</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7022735736150479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6604762005281597</v>
+        <v>0.6617771191765147</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7402719549703257</v>
+        <v>0.7389231878866462</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>742</v>
@@ -4197,19 +4197,19 @@
         <v>842537</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>805993</v>
+        <v>807980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>875677</v>
+        <v>874777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6856965037300052</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6559554780621285</v>
+        <v>0.6575729745371953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7126680836589337</v>
+        <v>0.7119354022006344</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>161689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139147</v>
+        <v>139242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186059</v>
+        <v>182978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2635124380710971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2267733655057811</v>
+        <v>0.2269282274890432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3032288894557815</v>
+        <v>0.2982069074861595</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -4247,19 +4247,19 @@
         <v>131217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109628</v>
+        <v>111293</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>153655</v>
+        <v>154173</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2133138343436818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1782166599129958</v>
+        <v>0.1809239101880295</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2497887559778275</v>
+        <v>0.2506314719710588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>262</v>
@@ -4268,19 +4268,19 @@
         <v>292907</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>260726</v>
+        <v>262212</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>323537</v>
+        <v>325408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.238381562541457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2121915641557434</v>
+        <v>0.2134003952856549</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2633097472688903</v>
+        <v>0.2648325920603788</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>41362</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28341</v>
+        <v>29160</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56160</v>
+        <v>56965</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06740988686340051</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04618857481952639</v>
+        <v>0.04752325894390372</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09152723999149334</v>
+        <v>0.09283826541871872</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -4318,19 +4318,19 @@
         <v>51925</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38271</v>
+        <v>38237</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>69123</v>
+        <v>68743</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08441259204127027</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06221473739964675</v>
+        <v>0.06215972080644538</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1123691711011005</v>
+        <v>0.1117515668812295</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>81</v>
@@ -4339,19 +4339,19 @@
         <v>93288</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75177</v>
+        <v>75335</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>115844</v>
+        <v>116877</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07592193372853777</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06118238343779088</v>
+        <v>0.06131146493819906</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09427915721917315</v>
+        <v>0.09511998772898825</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>304619</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>285164</v>
+        <v>283352</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>323601</v>
+        <v>323295</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7093589941883131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6640541266444198</v>
+        <v>0.6598332276849981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7535621271236108</v>
+        <v>0.7528490321556045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>276</v>
@@ -4464,19 +4464,19 @@
         <v>303615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>281760</v>
+        <v>282560</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322380</v>
+        <v>324027</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6811453572801259</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6321153187119739</v>
+        <v>0.6339090054854284</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7232430832618855</v>
+        <v>0.72693850422984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>554</v>
@@ -4485,19 +4485,19 @@
         <v>608234</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>580053</v>
+        <v>578193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>635318</v>
+        <v>637987</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6949892252736614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6627883855618217</v>
+        <v>0.6606632445287602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7259360651215871</v>
+        <v>0.7289856822372882</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>101255</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>84023</v>
+        <v>84294</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>122151</v>
+        <v>121086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2357897083261781</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1956625012933678</v>
+        <v>0.196293006946349</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2844495401051276</v>
+        <v>0.2819705192422192</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>99</v>
@@ -4535,19 +4535,19 @@
         <v>109961</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>92410</v>
+        <v>91554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>130273</v>
+        <v>130548</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2466930514281371</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2073168460338345</v>
+        <v>0.2053976068993002</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2922610147709377</v>
+        <v>0.2928775762096906</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>192</v>
@@ -4556,19 +4556,19 @@
         <v>211216</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>184870</v>
+        <v>185387</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>237806</v>
+        <v>239539</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2413429987893033</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2112382609279868</v>
+        <v>0.2118290044239231</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.271725189160878</v>
+        <v>0.2737058334242929</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>23555</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15790</v>
+        <v>15251</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34916</v>
+        <v>33904</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0548512974855089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03677073632636225</v>
+        <v>0.03551373378218281</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08130701381287345</v>
+        <v>0.07895141231570905</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4606,19 +4606,19 @@
         <v>32165</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22720</v>
+        <v>21833</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45964</v>
+        <v>45439</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07216159129173692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05097051900024935</v>
+        <v>0.04898106501744245</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1031170897400781</v>
+        <v>0.1019401134715002</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4627,19 +4627,19 @@
         <v>55720</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42768</v>
+        <v>41651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73889</v>
+        <v>71278</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06366777593703533</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04886808353977928</v>
+        <v>0.04759202345846673</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0844278087606371</v>
+        <v>0.08144485711642103</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>196530</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>178631</v>
+        <v>178727</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>212633</v>
+        <v>215836</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6344042576787484</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5766272271317564</v>
+        <v>0.576937796717132</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6863875703922243</v>
+        <v>0.6967250253067038</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>229</v>
@@ -4752,19 +4752,19 @@
         <v>236650</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>218610</v>
+        <v>220358</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>252695</v>
+        <v>255487</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6685114805942186</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.617548261799419</v>
+        <v>0.6224861146628714</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7138362839295527</v>
+        <v>0.7217214390381963</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>409</v>
@@ -4773,19 +4773,19 @@
         <v>433180</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>408530</v>
+        <v>404518</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>456332</v>
+        <v>456117</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6525936890992818</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6154575242345411</v>
+        <v>0.6094136824456342</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6874732605629245</v>
+        <v>0.6871487735577322</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>82959</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69114</v>
+        <v>67196</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100500</v>
+        <v>99931</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2677947613250936</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2231012110813876</v>
+        <v>0.2169101671015232</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3244163314247375</v>
+        <v>0.3225795875629024</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -4823,19 +4823,19 @@
         <v>88930</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72370</v>
+        <v>72695</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105740</v>
+        <v>106319</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2512172613454807</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2044362718087825</v>
+        <v>0.2053565992973035</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2987042227428167</v>
+        <v>0.300340250691744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>163</v>
@@ -4844,19 +4844,19 @@
         <v>171889</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>150467</v>
+        <v>149921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>195293</v>
+        <v>195941</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.258953956556251</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2266810444576444</v>
+        <v>0.225859012414391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.294212154758733</v>
+        <v>0.2951888549274486</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>30297</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19753</v>
+        <v>19593</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42272</v>
+        <v>43072</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09780098099615807</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06376488106648145</v>
+        <v>0.0632478653484724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1364557602024833</v>
+        <v>0.1390377858232413</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -4894,19 +4894,19 @@
         <v>28416</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19181</v>
+        <v>19376</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41025</v>
+        <v>41718</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08027125806030078</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05418556518367974</v>
+        <v>0.05473574072713258</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1158905411745917</v>
+        <v>0.1178497236165904</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -4915,19 +4915,19 @@
         <v>58713</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44887</v>
+        <v>43792</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>75556</v>
+        <v>76185</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08845235434446712</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0676236045690564</v>
+        <v>0.06597374647213269</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1138267734333551</v>
+        <v>0.1147734830513083</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>170135</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>153903</v>
+        <v>154856</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>184879</v>
+        <v>185327</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6841430675795487</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6188738038879009</v>
+        <v>0.6227050293013356</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.743431050720086</v>
+        <v>0.7452326043271204</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>240</v>
@@ -5040,19 +5040,19 @@
         <v>266291</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>245839</v>
+        <v>247943</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>283679</v>
+        <v>286664</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.684588834259275</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.63200985267205</v>
+        <v>0.6374212972370492</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7292921400312558</v>
+        <v>0.7369650462177511</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>392</v>
@@ -5061,19 +5061,19 @@
         <v>436425</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>412679</v>
+        <v>408993</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>459662</v>
+        <v>458959</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6844149887987122</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6471749530992568</v>
+        <v>0.6413949960995651</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7208555046120977</v>
+        <v>0.719752092394805</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>65151</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>50407</v>
+        <v>52259</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80590</v>
+        <v>81025</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2619860429100128</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2026977705247677</v>
+        <v>0.2101444704322302</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3240680795267473</v>
+        <v>0.3258160646946524</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>93</v>
@@ -5111,19 +5111,19 @@
         <v>103527</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86488</v>
+        <v>84980</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123984</v>
+        <v>122049</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2661501443377735</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2223457482786051</v>
+        <v>0.2184681613373249</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3187415462398621</v>
+        <v>0.3137682630396891</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>149</v>
@@ -5132,19 +5132,19 @@
         <v>168678</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>148027</v>
+        <v>148452</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>193623</v>
+        <v>194651</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2645261778919562</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2321402692574793</v>
+        <v>0.2328071053793336</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3036456494691552</v>
+        <v>0.305257548415011</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>13397</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7921</v>
+        <v>7886</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22758</v>
+        <v>22354</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05387088951043859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03185378116786897</v>
+        <v>0.03171257898673913</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09151362500724897</v>
+        <v>0.08989112997162252</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -5182,19 +5182,19 @@
         <v>19162</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11319</v>
+        <v>11567</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31794</v>
+        <v>30364</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04926102140295151</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02909834870022021</v>
+        <v>0.02973562020429584</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08173690071753877</v>
+        <v>0.07806146252885793</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -5203,19 +5203,19 @@
         <v>32558</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23035</v>
+        <v>23319</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46124</v>
+        <v>47596</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05105883330933156</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03612478068850693</v>
+        <v>0.03656911689088977</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07233254100441446</v>
+        <v>0.07464118247090455</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>2339811</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2275935</v>
+        <v>2285918</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2392852</v>
+        <v>2393965</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6840613871729462</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6653867671479304</v>
+        <v>0.6683053103765265</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6995681259181289</v>
+        <v>0.6998936981696514</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2313</v>
@@ -5328,19 +5328,19 @@
         <v>2496706</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2441009</v>
+        <v>2439272</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2554526</v>
+        <v>2558360</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7028107711545849</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6871325358411846</v>
+        <v>0.6866435607020658</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7190869817894331</v>
+        <v>0.7201662203391844</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4500</v>
@@ -5349,19 +5349,19 @@
         <v>4836518</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4760571</v>
+        <v>4754588</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4912336</v>
+        <v>4913998</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6936135288956127</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6827219028010336</v>
+        <v>0.6818637675717064</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7044867053476092</v>
+        <v>0.7047251000046233</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>864025</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>815775</v>
+        <v>819900</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>924834</v>
+        <v>919791</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2526042618159133</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2384977992671036</v>
+        <v>0.239703961844654</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2703820645700256</v>
+        <v>0.2689078958193361</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>762</v>
@@ -5399,19 +5399,19 @@
         <v>819907</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>769510</v>
+        <v>766988</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>871725</v>
+        <v>874809</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2308000308042912</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2166134373920722</v>
+        <v>0.2159034787741739</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2453864850560735</v>
+        <v>0.2462545471025665</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1577</v>
@@ -5420,19 +5420,19 @@
         <v>1683933</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1606318</v>
+        <v>1611330</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1754481</v>
+        <v>1757665</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2414957845997691</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2303649432920149</v>
+        <v>0.231083706730832</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2516131754539149</v>
+        <v>0.252069799642036</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>216633</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>188523</v>
+        <v>188875</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>251405</v>
+        <v>245601</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06333435101114042</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05511610075682793</v>
+        <v>0.05521893269722042</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07350005441267404</v>
+        <v>0.0718033001726948</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>218</v>
@@ -5470,19 +5470,19 @@
         <v>235845</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>208350</v>
+        <v>206109</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>267304</v>
+        <v>270074</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06638919804112389</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05864960495867836</v>
+        <v>0.05801858399059068</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0752449226420982</v>
+        <v>0.07602466698118791</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>419</v>
@@ -5491,19 +5491,19 @@
         <v>452478</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>409519</v>
+        <v>409265</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>494829</v>
+        <v>494446</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06489068650461824</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05872978126867841</v>
+        <v>0.05869341003529872</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0709642478182481</v>
+        <v>0.07090943782630828</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>308520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>289261</v>
+        <v>286188</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>328292</v>
+        <v>326189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7355110550820612</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6895978838153346</v>
+        <v>0.6822723675722419</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7826481999464112</v>
+        <v>0.777635815644262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>282</v>
@@ -5859,19 +5859,19 @@
         <v>273610</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>254543</v>
+        <v>256892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>291944</v>
+        <v>291714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6913612957379794</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6431829395131865</v>
+        <v>0.6491195419957541</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7376895214205246</v>
+        <v>0.7371082693689905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>573</v>
@@ -5880,19 +5880,19 @@
         <v>582129</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>554604</v>
+        <v>555207</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>605704</v>
+        <v>606417</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.714078152338959</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6803136164074006</v>
+        <v>0.6810538232304396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7429959510083395</v>
+        <v>0.7438703645338954</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>85596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67782</v>
+        <v>69209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103538</v>
+        <v>104398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2040608587832418</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1615911589528616</v>
+        <v>0.1649935002598024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2468337243035566</v>
+        <v>0.2488842656384651</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -5930,19 +5930,19 @@
         <v>97334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81622</v>
+        <v>81531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116300</v>
+        <v>113496</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.245944735502094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2062443158156445</v>
+        <v>0.2060132920559511</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2938697909114276</v>
+        <v>0.2867835626588233</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -5951,19 +5951,19 @@
         <v>182930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161736</v>
+        <v>161886</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>207949</v>
+        <v>209467</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2243937681706533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1983965644215814</v>
+        <v>0.1985794165115978</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2550843965307131</v>
+        <v>0.2569465237388998</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>25347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15898</v>
+        <v>15722</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37420</v>
+        <v>37005</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06042808613469706</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03790158382396303</v>
+        <v>0.03748153883869679</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08920833262288459</v>
+        <v>0.08821950003239731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -6001,19 +6001,19 @@
         <v>24811</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17091</v>
+        <v>16542</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35569</v>
+        <v>35907</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06269396875992658</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04318605808160329</v>
+        <v>0.04179776436443065</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0898751411281959</v>
+        <v>0.09073147580011426</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -6022,19 +6022,19 @@
         <v>50159</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37839</v>
+        <v>38957</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65226</v>
+        <v>66455</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06152807949038767</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04641578288404454</v>
+        <v>0.04778767770548979</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08001032362837227</v>
+        <v>0.08151846715220593</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>399820</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>377865</v>
+        <v>380064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421755</v>
+        <v>422440</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6770916444669477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6399114908332414</v>
+        <v>0.6436350591971598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7142390743198231</v>
+        <v>0.7153982059941377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>404</v>
@@ -6147,19 +6147,19 @@
         <v>390513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>370407</v>
+        <v>365933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>411064</v>
+        <v>411272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6929584657195577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6572817493960658</v>
+        <v>0.6493427254113215</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.729426746470162</v>
+        <v>0.729796317234836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>787</v>
@@ -6168,19 +6168,19 @@
         <v>790332</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>758159</v>
+        <v>757842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>819782</v>
+        <v>821024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6848397704573289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6569605695751528</v>
+        <v>0.656685731266349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7103586990706681</v>
+        <v>0.7114348170114029</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>162682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>144467</v>
+        <v>141566</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>185601</v>
+        <v>183410</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2755006675221593</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2446542230748906</v>
+        <v>0.2397412562291044</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3143132027645036</v>
+        <v>0.3106037685415513</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>135</v>
@@ -6218,19 +6218,19 @@
         <v>132863</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113536</v>
+        <v>113895</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>152804</v>
+        <v>154223</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2357629138820505</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.201467836881195</v>
+        <v>0.2021041345111455</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2711487636210883</v>
+        <v>0.2736656909691701</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>293</v>
@@ -6239,19 +6239,19 @@
         <v>295545</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>266932</v>
+        <v>267320</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>326835</v>
+        <v>327406</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2560958278963491</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2313017796145541</v>
+        <v>0.2316380579492769</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2832097427559427</v>
+        <v>0.2837041381248266</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>27994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18573</v>
+        <v>17948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40836</v>
+        <v>40024</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0474076880108929</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03145250065096664</v>
+        <v>0.03039410383385572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06915498621303577</v>
+        <v>0.06777991503300627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -6289,19 +6289,19 @@
         <v>40169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29863</v>
+        <v>29146</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52887</v>
+        <v>54830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0712786203983919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05299064551861331</v>
+        <v>0.05171900769637281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09384715310893284</v>
+        <v>0.09729442312008522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -6310,19 +6310,19 @@
         <v>68163</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53847</v>
+        <v>54205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87277</v>
+        <v>86305</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05906440164632198</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04665992199974459</v>
+        <v>0.04696975416687244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07562741180974289</v>
+        <v>0.07478474056193617</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>475319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>451553</v>
+        <v>451597</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>499200</v>
+        <v>500636</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7103884741356516</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6748696189213907</v>
+        <v>0.6749346009223505</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7460798884604688</v>
+        <v>0.7482267971927758</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>486</v>
@@ -6435,19 +6435,19 @@
         <v>482469</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>460906</v>
+        <v>458833</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>504990</v>
+        <v>504010</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.730669313053291</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6980132445767382</v>
+        <v>0.6948733511270364</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7647766427755177</v>
+        <v>0.7632921359397398</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>943</v>
@@ -6456,19 +6456,19 @@
         <v>957787</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>924225</v>
+        <v>925814</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>988188</v>
+        <v>987675</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7204618756192186</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6952163526906946</v>
+        <v>0.6964114659561573</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7433298059803539</v>
+        <v>0.7429437046649398</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>158395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135750</v>
+        <v>136579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>179345</v>
+        <v>182525</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.236728757138451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2028852642082546</v>
+        <v>0.2041236876324843</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.268040016470986</v>
+        <v>0.2727929509428648</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -6506,19 +6506,19 @@
         <v>133343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114776</v>
+        <v>114984</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154640</v>
+        <v>154617</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2019400712600341</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1738205124384406</v>
+        <v>0.1741367801054228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2341920316989677</v>
+        <v>0.2341576870803302</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -6527,19 +6527,19 @@
         <v>291738</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>263381</v>
+        <v>262268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>322552</v>
+        <v>320917</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2194493733140376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1981190152247545</v>
+        <v>0.1972818749317529</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2426287796961198</v>
+        <v>0.2413987291603337</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>35384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24758</v>
+        <v>25214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49280</v>
+        <v>48722</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05288276872589742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03700285181646965</v>
+        <v>0.03768298584562758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07365224851186233</v>
+        <v>0.07281772921376439</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -6577,19 +6577,19 @@
         <v>44499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31914</v>
+        <v>32697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60414</v>
+        <v>58253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06739061568667493</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04833112773212114</v>
+        <v>0.04951809167022505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09149382987674863</v>
+        <v>0.08822109385005075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -6598,19 +6598,19 @@
         <v>79882</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>64502</v>
+        <v>63913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>99003</v>
+        <v>98607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06008875106674379</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04851964522603874</v>
+        <v>0.04807601646459828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07447141080909202</v>
+        <v>0.07417332820508073</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>461013</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>437742</v>
+        <v>436848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>487495</v>
+        <v>484499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7162012177735929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6800485889862806</v>
+        <v>0.67865957365783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.757342237217293</v>
+        <v>0.7526871948362679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>425</v>
@@ -6723,19 +6723,19 @@
         <v>456239</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>431353</v>
+        <v>432028</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>480460</v>
+        <v>479991</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7048621844772968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6664155321812829</v>
+        <v>0.6674572301465761</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7422815708889071</v>
+        <v>0.7415577414270804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>839</v>
@@ -6744,19 +6744,19 @@
         <v>917252</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>884652</v>
+        <v>883776</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>950876</v>
+        <v>951141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7105159697617908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6852632253309392</v>
+        <v>0.6845846896022015</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7365612333687174</v>
+        <v>0.7367667821006275</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>157488</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133048</v>
+        <v>134205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179036</v>
+        <v>181287</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2446629756659504</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2066950451822601</v>
+        <v>0.2084930865384584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2781388428909585</v>
+        <v>0.2816367127005347</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -6794,19 +6794,19 @@
         <v>148321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125948</v>
+        <v>125323</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>170854</v>
+        <v>170812</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2291471837531554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1945815241084924</v>
+        <v>0.1936160743203645</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.263959644080015</v>
+        <v>0.2638939377276329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>280</v>
@@ -6815,19 +6815,19 @@
         <v>305809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>277781</v>
+        <v>274674</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>337858</v>
+        <v>336276</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2368835536624391</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2151729022546309</v>
+        <v>0.2127664588259424</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2617092527477436</v>
+        <v>0.2604843112394107</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>25191</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16859</v>
+        <v>16184</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38052</v>
+        <v>37798</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03913580656045666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02619154457770277</v>
+        <v>0.02514322217428256</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05911523530958247</v>
+        <v>0.05871990546543163</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -6865,19 +6865,19 @@
         <v>42714</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31745</v>
+        <v>31358</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57572</v>
+        <v>56622</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06599063176954789</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04904370990695602</v>
+        <v>0.04844614136454699</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0889448510130757</v>
+        <v>0.08747738094389954</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -6886,19 +6886,19 @@
         <v>67905</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51595</v>
+        <v>52405</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84766</v>
+        <v>85547</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05260047657577006</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03996612032081082</v>
+        <v>0.04059398523853677</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06566069147882038</v>
+        <v>0.06626559307839011</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>344489</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321533</v>
+        <v>322695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>361593</v>
+        <v>363748</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7208123862915894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6727794385415121</v>
+        <v>0.6752102298140148</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7566000152215575</v>
+        <v>0.7611087598106091</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>313</v>
@@ -7011,19 +7011,19 @@
         <v>357615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>335594</v>
+        <v>337124</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>377895</v>
+        <v>379434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7197659353993481</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6754444921922188</v>
+        <v>0.6785231791467219</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7605825458481122</v>
+        <v>0.7636815688455222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>619</v>
@@ -7032,19 +7032,19 @@
         <v>702104</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>671377</v>
+        <v>671269</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>731958</v>
+        <v>731232</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.720278999255625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6887563414402117</v>
+        <v>0.6886459083969074</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7509060920961814</v>
+        <v>0.7501604448628995</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>102403</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>86533</v>
+        <v>83911</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>122089</v>
+        <v>121542</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.214269670916156</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.181063199563443</v>
+        <v>0.1755764719123806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2554596159803448</v>
+        <v>0.2543147625473033</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>90</v>
@@ -7082,19 +7082,19 @@
         <v>103608</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>84783</v>
+        <v>84957</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>121961</v>
+        <v>122894</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2085303915540161</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1706419945657649</v>
+        <v>0.1709906346989662</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2454697136076224</v>
+        <v>0.2473477779644102</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>181</v>
@@ -7103,19 +7103,19 @@
         <v>206011</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>180204</v>
+        <v>181711</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>234471</v>
+        <v>233559</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2113442998067802</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1848691662742158</v>
+        <v>0.186414307648005</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2405404862203916</v>
+        <v>0.2396047134119287</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>31025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21382</v>
+        <v>21548</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44615</v>
+        <v>44950</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06491794279225459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04473892208470415</v>
+        <v>0.0450869188733089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09335318289899446</v>
+        <v>0.09405331359038362</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -7153,19 +7153,19 @@
         <v>35626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24429</v>
+        <v>23953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49019</v>
+        <v>49676</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07170367304663579</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04916782954894742</v>
+        <v>0.04821059964608906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09865945858488738</v>
+        <v>0.09998211895442889</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -7174,19 +7174,19 @@
         <v>66651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51184</v>
+        <v>52192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84664</v>
+        <v>84392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06837670093759482</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05250943733432592</v>
+        <v>0.05354275908980917</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0868552057532236</v>
+        <v>0.08657677804800963</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>238973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>220834</v>
+        <v>222960</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>255173</v>
+        <v>255869</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7147812733800106</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6605276348212787</v>
+        <v>0.6668848431299113</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7632368055723781</v>
+        <v>0.7653183060605068</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>260</v>
@@ -7299,19 +7299,19 @@
         <v>277150</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>259154</v>
+        <v>259196</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>293057</v>
+        <v>293803</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7375845491961122</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6896911771092081</v>
+        <v>0.6898027543193864</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7799180586546819</v>
+        <v>0.7819023870279973</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>494</v>
@@ -7320,19 +7320,19 @@
         <v>516123</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>489116</v>
+        <v>490568</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>540109</v>
+        <v>539449</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7268480419037563</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6888148996630978</v>
+        <v>0.6908587195665713</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7606264502224074</v>
+        <v>0.759697786780804</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>80398</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63364</v>
+        <v>63332</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98259</v>
+        <v>94942</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2404738463716033</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1895245875162684</v>
+        <v>0.1894288426488004</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2938987665823869</v>
+        <v>0.283976966807503</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -7370,19 +7370,19 @@
         <v>77440</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63037</v>
+        <v>63087</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94263</v>
+        <v>95501</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2060915816895045</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1677619795347461</v>
+        <v>0.1678946018304014</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2508635142507115</v>
+        <v>0.2541580753603289</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>148</v>
@@ -7391,19 +7391,19 @@
         <v>157837</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>135929</v>
+        <v>137264</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180541</v>
+        <v>181933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2222798450979752</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.191427342034406</v>
+        <v>0.19330671860533</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2542530608533358</v>
+        <v>0.2562138951979254</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>14960</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8986</v>
+        <v>8865</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23772</v>
+        <v>22919</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04474488024838608</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02687802932736398</v>
+        <v>0.02651632202814927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07110319559848863</v>
+        <v>0.06855118469225463</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -7441,19 +7441,19 @@
         <v>21164</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13796</v>
+        <v>13362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32032</v>
+        <v>31758</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05632386911438336</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03671610412318044</v>
+        <v>0.03556099237389976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08524684879907529</v>
+        <v>0.08451740824717642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -7462,19 +7462,19 @@
         <v>36123</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25382</v>
+        <v>25484</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47900</v>
+        <v>49450</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05087211299826847</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0357448051998598</v>
+        <v>0.03588833497917069</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06745633657088437</v>
+        <v>0.06963967995079876</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>181031</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>167330</v>
+        <v>166407</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>193245</v>
+        <v>193047</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7044065742558924</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6510943831819905</v>
+        <v>0.6475012764067882</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7519321618857687</v>
+        <v>0.7511603389597148</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>218</v>
@@ -7587,19 +7587,19 @@
         <v>288392</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>267647</v>
+        <v>266692</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>308002</v>
+        <v>307408</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7229729573866851</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6709660159627235</v>
+        <v>0.6685726770522619</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7721331505301727</v>
+        <v>0.7706425621777271</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>430</v>
@@ -7608,19 +7608,19 @@
         <v>469424</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>446641</v>
+        <v>444844</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>495055</v>
+        <v>494164</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7156981396162461</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6809626128662895</v>
+        <v>0.6782233693811767</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.754776416457119</v>
+        <v>0.7534182398054609</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>62877</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51572</v>
+        <v>52049</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>76111</v>
+        <v>76113</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.244658395825877</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2006696878737778</v>
+        <v>0.2025274381350487</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2961540597180007</v>
+        <v>0.2961613356969987</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>66</v>
@@ -7658,19 +7658,19 @@
         <v>88166</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>70180</v>
+        <v>70945</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>107133</v>
+        <v>107049</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.221024550542135</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1759347529622793</v>
+        <v>0.1778526900136676</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2685734977220114</v>
+        <v>0.2683617168150728</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>141</v>
@@ -7679,19 +7679,19 @@
         <v>151043</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>129784</v>
+        <v>129555</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>173034</v>
+        <v>173616</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2302849388710185</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1978729218974729</v>
+        <v>0.1975234165856299</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2638124469675004</v>
+        <v>0.2647008093362955</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>13090</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7642</v>
+        <v>7447</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21056</v>
+        <v>20538</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05093502991823054</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02973737570014346</v>
+        <v>0.02897580143848957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08192933697300489</v>
+        <v>0.07991622017218711</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -7729,19 +7729,19 @@
         <v>22339</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13007</v>
+        <v>12727</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34528</v>
+        <v>35010</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05600249207117989</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0326084373907503</v>
+        <v>0.0319056273249967</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08655959241596907</v>
+        <v>0.08776620299719708</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>31</v>
@@ -7750,19 +7750,19 @@
         <v>35429</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24273</v>
+        <v>24350</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>48903</v>
+        <v>50532</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05401692151273536</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03700778634577975</v>
+        <v>0.03712429199759184</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07455852511152132</v>
+        <v>0.07704208914910624</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>2409164</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2356377</v>
+        <v>2356742</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2462761</v>
+        <v>2467323</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.710250217728163</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6946879582236927</v>
+        <v>0.6947954079180215</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7260510883269016</v>
+        <v>0.7273958936773651</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2388</v>
@@ -7875,19 +7875,19 @@
         <v>2525987</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2472644</v>
+        <v>2470519</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2583969</v>
+        <v>2578143</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7138816185250244</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6988060561408815</v>
+        <v>0.6982055345746824</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7302681033020064</v>
+        <v>0.7286216348444946</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4685</v>
@@ -7896,19 +7896,19 @@
         <v>4935152</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4863172</v>
+        <v>4859190</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5012009</v>
+        <v>5012181</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.712104271098479</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7017181842376631</v>
+        <v>0.7011435943709908</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7231941549597718</v>
+        <v>0.723218963792957</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>809838</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>760570</v>
+        <v>758099</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>859514</v>
+        <v>858489</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2387497771014773</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2242249935979514</v>
+        <v>0.2234966582697186</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.253394968387504</v>
+        <v>0.2530928248518554</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>732</v>
@@ -7946,19 +7946,19 @@
         <v>781075</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>729933</v>
+        <v>732672</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>832603</v>
+        <v>830587</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2207433654473319</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2062899709826564</v>
+        <v>0.2070639499622801</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2353059155859841</v>
+        <v>0.2347362467368522</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1503</v>
@@ -7967,19 +7967,19 @@
         <v>1590913</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1518844</v>
+        <v>1524675</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1660344</v>
+        <v>1662246</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2295563968930686</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2191574197644514</v>
+        <v>0.2199987880192888</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2395747868533952</v>
+        <v>0.2398492588895772</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>172992</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>145694</v>
+        <v>149473</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>199292</v>
+        <v>201848</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05100000517035975</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04295227452599566</v>
+        <v>0.04406650512972873</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05875355069825579</v>
+        <v>0.05950716761566602</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>213</v>
@@ -8017,19 +8017,19 @@
         <v>231322</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>204859</v>
+        <v>202446</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>264868</v>
+        <v>261608</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06537501602764363</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0578960704324548</v>
+        <v>0.05721426625339759</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07485557504711333</v>
+        <v>0.07393435638296039</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>374</v>
@@ -8038,19 +8038,19 @@
         <v>404314</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>364873</v>
+        <v>367417</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>445246</v>
+        <v>446917</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05833933200845242</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05264836077122791</v>
+        <v>0.05301539589289988</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06424551450012167</v>
+        <v>0.06448665776186099</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>336332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>312195</v>
+        <v>308918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>359856</v>
+        <v>356677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8247625105622203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7655720704076672</v>
+        <v>0.7575356077400567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.882448403138741</v>
+        <v>0.8746531011285122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -8406,19 +8406,19 @@
         <v>248551</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222803</v>
+        <v>224318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>272391</v>
+        <v>272731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6856362013844202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6146074571491652</v>
+        <v>0.6187874138417622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7513990198637001</v>
+        <v>0.7523363705757621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>287</v>
@@ -8427,19 +8427,19 @@
         <v>584884</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>550020</v>
+        <v>547045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>618073</v>
+        <v>616079</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7592885091648933</v>
+        <v>0.7592885091648932</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7140286594863936</v>
+        <v>0.7101671196320594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8023737930616439</v>
+        <v>0.7997855966173129</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>56062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35785</v>
+        <v>36482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80073</v>
+        <v>82625</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1374758714097283</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08775401658603889</v>
+        <v>0.089461403782106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.196356061557841</v>
+        <v>0.2026160565250782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -8477,19 +8477,19 @@
         <v>80263</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58463</v>
+        <v>59287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103950</v>
+        <v>102482</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2214079910544159</v>
+        <v>0.2214079910544158</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1612728319094584</v>
+        <v>0.1635451869732217</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.286748014319275</v>
+        <v>0.2827001221424734</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -8498,19 +8498,19 @@
         <v>136325</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>106934</v>
+        <v>108477</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>168790</v>
+        <v>170106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1769750268992478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.138820889613852</v>
+        <v>0.1408234142036084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2191207236417273</v>
+        <v>0.2208292745340984</v>
       </c>
     </row>
     <row r="6">
@@ -8527,19 +8527,19 @@
         <v>15399</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7154</v>
+        <v>7156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30502</v>
+        <v>30739</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0377616180280515</v>
+        <v>0.03776161802805151</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01754382484281249</v>
+        <v>0.01754893411255816</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0747985556955902</v>
+        <v>0.07538014709420743</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -8548,19 +8548,19 @@
         <v>33698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21793</v>
+        <v>20699</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50867</v>
+        <v>52341</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09295580756116395</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06011642741321973</v>
+        <v>0.05709878148311066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1403170224494638</v>
+        <v>0.1443845460310698</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -8569,19 +8569,19 @@
         <v>49097</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33527</v>
+        <v>33497</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70748</v>
+        <v>69226</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06373646393585897</v>
+        <v>0.06373646393585894</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04352433032683014</v>
+        <v>0.04348498610219089</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09184428062831085</v>
+        <v>0.08986877875471826</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>347551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>318398</v>
+        <v>321540</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>368532</v>
+        <v>371723</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7287860904978374</v>
+        <v>0.7287860904978373</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6676544896745169</v>
+        <v>0.6742434247477458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7727825909949129</v>
+        <v>0.7794722643750992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -8694,19 +8694,19 @@
         <v>402786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383270</v>
+        <v>382315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>420127</v>
+        <v>419696</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8027891620380803</v>
+        <v>0.8027891620380802</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7638921661065281</v>
+        <v>0.761989644132536</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8373514818056662</v>
+        <v>0.8364920124991543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>590</v>
@@ -8715,19 +8715,19 @@
         <v>750337</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>719573</v>
+        <v>714885</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>779327</v>
+        <v>779004</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7667269103051633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7352913887156194</v>
+        <v>0.7305007108557625</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7963501798272289</v>
+        <v>0.7960205442998233</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>102488</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79930</v>
+        <v>80037</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>128139</v>
+        <v>127825</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2149080522506258</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1676068540310578</v>
+        <v>0.1678316755093982</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2686969519100078</v>
+        <v>0.2680393178165461</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -8765,19 +8765,19 @@
         <v>72662</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>57644</v>
+        <v>57740</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>90565</v>
+        <v>89864</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1448213348592433</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1148888959294592</v>
+        <v>0.1150811051731348</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1805041890728861</v>
+        <v>0.1791070676982123</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>132</v>
@@ -8786,19 +8786,19 @@
         <v>175149</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>149244</v>
+        <v>148444</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>205398</v>
+        <v>207904</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1789751178454995</v>
+        <v>0.1789751178454996</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.152504284562273</v>
+        <v>0.1516862606507216</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2098845567036146</v>
+        <v>0.2124449500060339</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>26852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16714</v>
+        <v>15462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41648</v>
+        <v>41016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05630585725153683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03504776361768164</v>
+        <v>0.03242347144693382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0873328613132713</v>
+        <v>0.08600644976568532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -8836,19 +8836,19 @@
         <v>26286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16499</v>
+        <v>16924</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38585</v>
+        <v>38353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05238950310267632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03288349650619801</v>
+        <v>0.03373102833961261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07690311616179203</v>
+        <v>0.07644013455602731</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -8857,19 +8857,19 @@
         <v>53137</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37318</v>
+        <v>39044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70433</v>
+        <v>72214</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05429797184933718</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03813348120180244</v>
+        <v>0.03989728900933302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07197196344309735</v>
+        <v>0.07379170879982898</v>
       </c>
     </row>
     <row r="11">
@@ -8961,19 +8961,19 @@
         <v>478765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>453606</v>
+        <v>455467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>500072</v>
+        <v>500945</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.775384506076508</v>
+        <v>0.7753845060765081</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7346389430746302</v>
+        <v>0.7376520130125831</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8098920180692504</v>
+        <v>0.8113067659518142</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>668</v>
@@ -8982,19 +8982,19 @@
         <v>482406</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>464201</v>
+        <v>462789</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>500311</v>
+        <v>499001</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7761658524388867</v>
+        <v>0.7761658524388866</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7468736618989715</v>
+        <v>0.744602229831501</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8049739514171416</v>
+        <v>0.8028656076748965</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1098</v>
@@ -9003,19 +9003,19 @@
         <v>961172</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>932897</v>
+        <v>931769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>992514</v>
+        <v>988494</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7757764625899596</v>
+        <v>0.7757764625899599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.752954716821167</v>
+        <v>0.7520446450817011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8010728286244142</v>
+        <v>0.7978280156732105</v>
       </c>
     </row>
     <row r="13">
@@ -9032,19 +9032,19 @@
         <v>109299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90398</v>
+        <v>89750</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131584</v>
+        <v>130058</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1770152459233479</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1464041552464496</v>
+        <v>0.1453541906288628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2131075785021955</v>
+        <v>0.2106348245240783</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -9053,19 +9053,19 @@
         <v>97913</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82381</v>
+        <v>83251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>115844</v>
+        <v>115767</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1575363895861802</v>
+        <v>0.1575363895861801</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1325467979726431</v>
+        <v>0.1339469316952544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.186386443157072</v>
+        <v>0.1862627150681244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -9074,19 +9074,19 @@
         <v>207212</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>181712</v>
+        <v>183112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>237161</v>
+        <v>233364</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1672438244596318</v>
+        <v>0.1672438244596319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1466627434057969</v>
+        <v>0.147792796838348</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1914161564033831</v>
+        <v>0.1883519356752507</v>
       </c>
     </row>
     <row r="14">
@@ -9103,19 +9103,19 @@
         <v>29391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18887</v>
+        <v>19387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42655</v>
+        <v>43296</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04760024800014411</v>
+        <v>0.04760024800014413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03058850865483144</v>
+        <v>0.03139788398898019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06908118004134346</v>
+        <v>0.07011972874049766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -9124,19 +9124,19 @@
         <v>41206</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30389</v>
+        <v>31255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52249</v>
+        <v>53183</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06629775797493315</v>
+        <v>0.06629775797493313</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04889476750626006</v>
+        <v>0.05028827281926623</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08406547055816592</v>
+        <v>0.08556842020994435</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -9145,19 +9145,19 @@
         <v>70597</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54925</v>
+        <v>57286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86928</v>
+        <v>87772</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05697971295040841</v>
+        <v>0.05697971295040843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04433067296001741</v>
+        <v>0.04623609158937436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07016049405853644</v>
+        <v>0.07084201840386406</v>
       </c>
     </row>
     <row r="15">
@@ -9249,19 +9249,19 @@
         <v>531449</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>508914</v>
+        <v>507762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>555778</v>
+        <v>554929</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7585447630007883</v>
+        <v>0.7585447630007882</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7263799089104425</v>
+        <v>0.7247354582227135</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7932695314800733</v>
+        <v>0.7920575084537609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>870</v>
@@ -9270,19 +9270,19 @@
         <v>550874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>531622</v>
+        <v>531553</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>569399</v>
+        <v>570501</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7475706390502914</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7214441418928095</v>
+        <v>0.721351011889554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7727095608112976</v>
+        <v>0.7742055404864672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1381</v>
@@ -9291,19 +9291,19 @@
         <v>1082324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1048579</v>
+        <v>1051963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1112477</v>
+        <v>1113123</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.752919258628887</v>
+        <v>0.7529192586288873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7294442926944847</v>
+        <v>0.7317984832855926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7738947713763349</v>
+        <v>0.7743444030008266</v>
       </c>
     </row>
     <row r="17">
@@ -9320,19 +9320,19 @@
         <v>126023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105216</v>
+        <v>106123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>147965</v>
+        <v>148044</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1798745337672677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1501756718511466</v>
+        <v>0.1514700956370029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2111920671392407</v>
+        <v>0.2113047706272881</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -9341,19 +9341,19 @@
         <v>141787</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125873</v>
+        <v>123411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160313</v>
+        <v>159947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1924143868151224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1708178283692678</v>
+        <v>0.1674758037871399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2175542843901571</v>
+        <v>0.2170579475331629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>321</v>
@@ -9362,19 +9362,19 @@
         <v>267811</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>239799</v>
+        <v>240544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297848</v>
+        <v>296669</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1863026549058585</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1668160582940277</v>
+        <v>0.1673346662203227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2071981169883088</v>
+        <v>0.206377565420453</v>
       </c>
     </row>
     <row r="18">
@@ -9391,19 +9391,19 @@
         <v>43144</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31989</v>
+        <v>31762</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56471</v>
+        <v>57973</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.061580703231944</v>
+        <v>0.06158070323194399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04565853270899273</v>
+        <v>0.04533470302813691</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08060138470064533</v>
+        <v>0.08274504796948977</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -9412,19 +9412,19 @@
         <v>44224</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34985</v>
+        <v>34191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56581</v>
+        <v>55832</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06001497413458616</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04747635688364744</v>
+        <v>0.04639942800410317</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07678350651875031</v>
+        <v>0.07576808424166032</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>104</v>
@@ -9433,19 +9433,19 @@
         <v>87369</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71706</v>
+        <v>69680</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104500</v>
+        <v>103981</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06077808646525432</v>
+        <v>0.06077808646525434</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04988221586357307</v>
+        <v>0.04847261678633435</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07269560052907641</v>
+        <v>0.07233446294277984</v>
       </c>
     </row>
     <row r="19">
@@ -9537,19 +9537,19 @@
         <v>478101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>457188</v>
+        <v>458705</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>496510</v>
+        <v>496914</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7857034203702171</v>
+        <v>0.785703420370217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7513347838906705</v>
+        <v>0.7538272253049437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8159562422839539</v>
+        <v>0.8166194142629316</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>786</v>
@@ -9558,19 +9558,19 @@
         <v>469307</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>451526</v>
+        <v>453649</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>485126</v>
+        <v>485134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7725274637553036</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7432587271344053</v>
+        <v>0.7467540710733097</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7985675306361605</v>
+        <v>0.7985804740993175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1306</v>
@@ -9579,19 +9579,19 @@
         <v>947408</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>920831</v>
+        <v>921531</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>970853</v>
+        <v>969034</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7791208932920837</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7572650179700857</v>
+        <v>0.7578404284510155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7984012542337497</v>
+        <v>0.7969058575902135</v>
       </c>
     </row>
     <row r="21">
@@ -9608,19 +9608,19 @@
         <v>97219</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>80459</v>
+        <v>81744</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>115973</v>
+        <v>116739</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1597683630834771</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1322253852203136</v>
+        <v>0.1343368241862655</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1905884456600258</v>
+        <v>0.1918472013107989</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>146</v>
@@ -9629,19 +9629,19 @@
         <v>94064</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>80447</v>
+        <v>79868</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>108339</v>
+        <v>106771</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1548388863382354</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1324237477357426</v>
+        <v>0.1314717092138425</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1783377193289286</v>
+        <v>0.1757556162929633</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>250</v>
@@ -9650,19 +9650,19 @@
         <v>191283</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>171424</v>
+        <v>170497</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>214176</v>
+        <v>214013</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1573056641611192</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1409741899650623</v>
+        <v>0.1402117092326495</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1761324754045228</v>
+        <v>0.1759983357546012</v>
       </c>
     </row>
     <row r="22">
@@ -9679,19 +9679,19 @@
         <v>33180</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23830</v>
+        <v>22787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46001</v>
+        <v>43883</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05452821654630578</v>
+        <v>0.05452821654630577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03916233990687307</v>
+        <v>0.03744791336380792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0755976387153011</v>
+        <v>0.07211607634632246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -9700,19 +9700,19 @@
         <v>44125</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34197</v>
+        <v>34382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54374</v>
+        <v>55520</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07263364990646091</v>
+        <v>0.07263364990646093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05629233063193515</v>
+        <v>0.05659630691739162</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08950567186150311</v>
+        <v>0.09139194271376308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -9721,19 +9721,19 @@
         <v>77305</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63840</v>
+        <v>64099</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93570</v>
+        <v>91922</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06357344254679691</v>
+        <v>0.06357344254679692</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05249978871576777</v>
+        <v>0.052713524449433</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07694956216760818</v>
+        <v>0.07559422399621174</v>
       </c>
     </row>
     <row r="23">
@@ -9825,19 +9825,19 @@
         <v>308581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>293724</v>
+        <v>293899</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>322231</v>
+        <v>322909</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7580348708766109</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7215383221324247</v>
+        <v>0.7219677318668666</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7915672820007856</v>
+        <v>0.7932329160553581</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>655</v>
@@ -9846,19 +9846,19 @@
         <v>342479</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>329667</v>
+        <v>331373</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>354941</v>
+        <v>356044</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7798404573481744</v>
+        <v>0.7798404573481742</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7506664207099183</v>
+        <v>0.7545517446023516</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8082161882539265</v>
+        <v>0.8107285582884078</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1088</v>
@@ -9867,19 +9867,19 @@
         <v>651060</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>630759</v>
+        <v>630915</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>669865</v>
+        <v>669725</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.769351056973466</v>
+        <v>0.7693510569734658</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7453611048068665</v>
+        <v>0.7455458426746759</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7915725661769669</v>
+        <v>0.7914074810851729</v>
       </c>
     </row>
     <row r="25">
@@ -9896,19 +9896,19 @@
         <v>76024</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63859</v>
+        <v>62706</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>90555</v>
+        <v>89167</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1867553671821188</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1568711214283633</v>
+        <v>0.1540396731461819</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2224512116983934</v>
+        <v>0.2190402337039213</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>131</v>
@@ -9917,19 +9917,19 @@
         <v>74008</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63955</v>
+        <v>62104</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86662</v>
+        <v>85032</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1685183156725451</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1456275466093861</v>
+        <v>0.1414138367541916</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1973332715449719</v>
+        <v>0.1936212588124384</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>235</v>
@@ -9938,19 +9938,19 @@
         <v>150032</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>132331</v>
+        <v>133546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>168425</v>
+        <v>168780</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1772911012698307</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1563741251703549</v>
+        <v>0.1578100114733589</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1990256822657966</v>
+        <v>0.1994453912319403</v>
       </c>
     </row>
     <row r="26">
@@ -9967,19 +9967,19 @@
         <v>22475</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15250</v>
+        <v>15287</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30272</v>
+        <v>31269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05520976194127047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03746141724417434</v>
+        <v>0.03755358566573602</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07436259671752363</v>
+        <v>0.07681190684765306</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -9988,19 +9988,19 @@
         <v>22679</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16151</v>
+        <v>16078</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30345</v>
+        <v>29638</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05164122697928059</v>
+        <v>0.05164122697928058</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03677708173636938</v>
+        <v>0.03660941775957336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06909751519759563</v>
+        <v>0.06748795514825745</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -10009,19 +10009,19 @@
         <v>45154</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35726</v>
+        <v>34875</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56986</v>
+        <v>56056</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05335784175670339</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04221751246551104</v>
+        <v>0.0412113075330545</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06733953697154786</v>
+        <v>0.06624095265269446</v>
       </c>
     </row>
     <row r="27">
@@ -10113,19 +10113,19 @@
         <v>231038</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>218057</v>
+        <v>218219</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>243553</v>
+        <v>243181</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7448085485057757</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7029592200388673</v>
+        <v>0.7034834587722226</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7851518700438925</v>
+        <v>0.7839542208073812</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>715</v>
@@ -10134,19 +10134,19 @@
         <v>363480</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>349454</v>
+        <v>349136</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>379021</v>
+        <v>376645</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7823348496609879</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7521468089993201</v>
+        <v>0.7514611717023505</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8157853842191863</v>
+        <v>0.8106709234812913</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1062</v>
@@ -10155,19 +10155,19 @@
         <v>594518</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>574261</v>
+        <v>574029</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>612938</v>
+        <v>613696</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7673109893361566</v>
+        <v>0.7673109893361564</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7411662364957778</v>
+        <v>0.7408668270504813</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7910853736774293</v>
+        <v>0.7920634785219715</v>
       </c>
     </row>
     <row r="29">
@@ -10184,19 +10184,19 @@
         <v>67454</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>55066</v>
+        <v>55179</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>79637</v>
+        <v>80133</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2174539885653932</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1775203313498669</v>
+        <v>0.177881840307406</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2567309778056215</v>
+        <v>0.2583286731122175</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>136</v>
@@ -10205,19 +10205,19 @@
         <v>81984</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>69421</v>
+        <v>70437</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>95994</v>
+        <v>96295</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1764585284395919</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1494178888274617</v>
+        <v>0.1516052528410908</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2066130912831995</v>
+        <v>0.2072607156409269</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>229</v>
@@ -10226,19 +10226,19 @@
         <v>149438</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>132308</v>
+        <v>131279</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>169358</v>
+        <v>167928</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1928712855705112</v>
+        <v>0.1928712855705111</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1707623634250524</v>
+        <v>0.1694341251981821</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2185811385395853</v>
+        <v>0.2167354028449208</v>
       </c>
     </row>
     <row r="30">
@@ -10255,19 +10255,19 @@
         <v>11706</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7010</v>
+        <v>7023</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18661</v>
+        <v>17887</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.03773746292883106</v>
+        <v>0.03773746292883107</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02259987980209217</v>
+        <v>0.02264049206561171</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06015848444567494</v>
+        <v>0.05766374267188221</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -10276,19 +10276,19 @@
         <v>19145</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12945</v>
+        <v>13328</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27390</v>
+        <v>28634</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04120662189942018</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02786172516868259</v>
+        <v>0.02868553764490339</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05895310939782585</v>
+        <v>0.06162933087998967</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>48</v>
@@ -10297,19 +10297,19 @@
         <v>30851</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23020</v>
+        <v>22161</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>40972</v>
+        <v>41311</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03981772509333229</v>
+        <v>0.03981772509333228</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02971049125761822</v>
+        <v>0.02860137289379732</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05288005782500466</v>
+        <v>0.05331837026777059</v>
       </c>
     </row>
     <row r="31">
@@ -10401,19 +10401,19 @@
         <v>2711819</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2661681</v>
+        <v>2654512</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2768572</v>
+        <v>2764044</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.768539528062582</v>
+        <v>0.7685395280625819</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7543303562590954</v>
+        <v>0.7522986844475997</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7846236725159554</v>
+        <v>0.7833404674529957</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4209</v>
@@ -10422,19 +10422,19 @@
         <v>2859885</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2810486</v>
+        <v>2808438</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2908916</v>
+        <v>2906747</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7659186992367177</v>
+        <v>0.7659186992367175</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7526890068140163</v>
+        <v>0.7521406313240447</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7790499378803494</v>
+        <v>0.7784692265150182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6812</v>
@@ -10443,19 +10443,19 @@
         <v>5571703</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5503357</v>
+        <v>5499030</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5645466</v>
+        <v>5639913</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7671920535306501</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7577811621116693</v>
+        <v>0.7571853776818116</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7773487265080976</v>
+        <v>0.7765841415681936</v>
       </c>
     </row>
     <row r="33">
@@ -10472,19 +10472,19 @@
         <v>634569</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>588793</v>
+        <v>587698</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>686489</v>
+        <v>683238</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1798391852841759</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1668661232566142</v>
+        <v>0.1665557981519931</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1945534926208138</v>
+        <v>0.1936322350563163</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>856</v>
@@ -10493,19 +10493,19 @@
         <v>642681</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>599349</v>
+        <v>602761</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>687128</v>
+        <v>688031</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1721192601354948</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1605143565699108</v>
+        <v>0.1614281615566505</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1840228441024492</v>
+        <v>0.1842648303895316</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1447</v>
@@ -10514,19 +10514,19 @@
         <v>1277250</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1214421</v>
+        <v>1215042</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1344834</v>
+        <v>1347008</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1758700582570275</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1672189042947323</v>
+        <v>0.1673044379737071</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1851759877354869</v>
+        <v>0.1854754578051708</v>
       </c>
     </row>
     <row r="34">
@@ -10543,19 +10543,19 @@
         <v>182148</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>154654</v>
+        <v>156194</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>210703</v>
+        <v>211850</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05162128665324221</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04382942922199191</v>
+        <v>0.04426607623951378</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05971400620695004</v>
+        <v>0.0600391948173559</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>298</v>
@@ -10564,19 +10564,19 @@
         <v>231362</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>203611</v>
+        <v>204501</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>258046</v>
+        <v>263635</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.06196204062778751</v>
+        <v>0.0619620406277875</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05453008765867154</v>
+        <v>0.05476845027064057</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06910848398137699</v>
+        <v>0.07060536247463609</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>476</v>
@@ -10585,19 +10585,19 @@
         <v>413509</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>378064</v>
+        <v>373555</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>453841</v>
+        <v>455533</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05693788821232239</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05205723100998064</v>
+        <v>0.05143639017773666</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06249135071828087</v>
+        <v>0.06272431309901207</v>
       </c>
     </row>
     <row r="35">
